--- a/medicine/Sexualité et sexologie/Momification_(BDSM)/Momification_(BDSM).xlsx
+++ b/medicine/Sexualité et sexologie/Momification_(BDSM)/Momification_(BDSM).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La momification est une technique pratiquée dans le cadre du BDSM qui consiste à immobiliser le partenaire soumis à l'aide de rouleaux de film étirable, de cellophane, d'adhésif, de latex ou encore de tissus dans une sorte de cocon. Une fois ce procédé exécuté, le partenaire est immobilisé à tel point qu'il ressemble à une momie égyptienne. Le partenaire soumis est dans un état de privation sensorielle à court terme ou sensuellement stimulé par bondage.
 La pratique présente certains risques comme l'hyperthermie, la strangulation, l'embolie, l'asphyxie l'étouffement ou encore la déshydratation.
